--- a/code/SMR_inputs.xlsx
+++ b/code/SMR_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgarrous/Documents/SMR_deployment/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4828A53B-F449-9E41-91EC-F88897AE14CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F36D40-F0D7-1045-94A1-66B0C04DE9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="1240" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="1440" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOAK_act" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Reactor</t>
+    <t>Type</t>
   </si>
   <si>
     <t>Power in MWe</t>
@@ -468,7 +468,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/code/SMR_inputs.xlsx
+++ b/code/SMR_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgarrous/Documents/SMR_deployment/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F36D40-F0D7-1045-94A1-66B0C04DE9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23C8E52-61B4-9C40-9A1F-D7F2E25CDDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1440" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -157,9 +157,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -468,7 +465,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -530,13 +527,13 @@
       <c r="F2" s="4">
         <v>316</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="4">
         <v>22561</v>
       </c>
       <c r="H2" s="5">
         <v>180</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>7.2</v>
       </c>
       <c r="J2" s="5">
@@ -569,7 +566,7 @@
       <c r="H3" s="5">
         <v>104</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>19.3</v>
       </c>
       <c r="J3" s="5">
@@ -591,7 +588,7 @@
         <v>0.44318181818181818</v>
       </c>
       <c r="E4" s="3">
-        <v>0.751</v>
+        <v>0.94</v>
       </c>
       <c r="F4" s="4">
         <v>700</v>
@@ -602,7 +599,7 @@
       <c r="H4" s="5">
         <v>181</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>8.9</v>
       </c>
       <c r="J4" s="5">
@@ -624,7 +621,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="E5" s="3">
-        <v>0.93600000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="F5" s="4">
         <v>700</v>
@@ -635,7 +632,7 @@
       <c r="H5" s="5">
         <v>131</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>29.6</v>
       </c>
       <c r="J5" s="5">
@@ -657,7 +654,7 @@
         <v>0.34965034965034963</v>
       </c>
       <c r="E6" s="3">
-        <v>0.89700000000000002</v>
+        <v>0.94</v>
       </c>
       <c r="F6" s="4">
         <v>510</v>
@@ -668,7 +665,7 @@
       <c r="H6" s="5">
         <v>131</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>78</v>
       </c>
       <c r="J6" s="5">
